--- a/src/test/resources/excel/testdata.xlsx
+++ b/src/test/resources/excel/testdata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/manish/Desktop/Manish/Workspace/Selenium/APITestingFramework_1/src/test/resources/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FF1ADE2-BCC8-814C-BBA5-F87F43E508F0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B05CBB5-F4D9-3F43-9630-86E9B2B62942}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16820" xr2:uid="{CF5EDC37-8322-4DF8-80D3-341056306236}"/>
   </bookViews>
@@ -81,10 +81,10 @@
     <t>id</t>
   </si>
   <si>
-    <t>cus_GNlt2FBIs7YE6u</t>
-  </si>
-  <si>
-    <t>cus_DlVwM6V1IrpVZQ</t>
+    <t>cus_HJCghD1fgi8IPV</t>
+  </si>
+  <si>
+    <t>cus_HJCgPcjFuchOXo</t>
   </si>
 </sst>
 </file>
@@ -448,7 +448,7 @@
   <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
